--- a/data/cleandata/explore.xlsx
+++ b/data/cleandata/explore.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexander\Documents\project1\data\cleandata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81AE975-BAF0-4CF8-805E-92A852F5E1FA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E6EC821-96E5-40B6-AF66-E2EE14B8A19F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12168" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12168" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="3" r:id="rId1"/>
@@ -22,13 +22,13 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="63">
   <si>
     <t>LNAUTO</t>
   </si>
@@ -210,16 +210,13 @@
     <t>West Virginia</t>
   </si>
   <si>
-    <t>Sum of TPD</t>
-  </si>
-  <si>
     <t>Row Labels</t>
   </si>
   <si>
     <t>Grand Total</t>
   </si>
   <si>
-    <t>Sum of LNCON</t>
+    <t>Sum of LNCONOTH</t>
   </si>
 </sst>
 </file>
@@ -1859,6 +1856,21 @@
           <c:symbol val="none"/>
         </c:marker>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="71"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -1875,7 +1887,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Sum of TPD</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1977,76 +1989,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>41621991</c:v>
+                  <c:v>260732730</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>48534692</c:v>
+                  <c:v>269735220</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>58677179</c:v>
+                  <c:v>269907393</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>52968870</c:v>
+                  <c:v>252758026</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43616916</c:v>
+                  <c:v>249402987</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>36212171</c:v>
+                  <c:v>265614563</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34878159</c:v>
+                  <c:v>300348392</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41898700</c:v>
+                  <c:v>319332316</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>48179368</c:v>
+                  <c:v>330626224</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>49265342</c:v>
+                  <c:v>330232878</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>51394497</c:v>
+                  <c:v>342060667</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>49271154</c:v>
+                  <c:v>346349062</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>58747606</c:v>
+                  <c:v>357269458</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>66339653</c:v>
+                  <c:v>362755159</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>63078890</c:v>
+                  <c:v>389570211</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>60999898</c:v>
+                  <c:v>416900158</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>57202202</c:v>
+                  <c:v>429113220</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>64471379</c:v>
+                  <c:v>442370932</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>78973321</c:v>
+                  <c:v>470162464</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>114678376</c:v>
+                  <c:v>521169308</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>202283447</c:v>
+                  <c:v>533349450</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>251462891</c:v>
+                  <c:v>532908042</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>229682914</c:v>
+                  <c:v>516481426</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>218578920</c:v>
+                  <c:v>241143564</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2054,197 +2066,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-CD7F-4B36-BF3D-5A03C47D2B98}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Sum of LNCON</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$4:$A$28</c:f>
-              <c:strCache>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>1988</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1989</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1990</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1991</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1992</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1993</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1994</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1995</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1996</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1997</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1998</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2003</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2011</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$4:$C$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>377968821</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>401194814</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>403500261</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>391855143</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>385823501</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>419971179</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>488704376</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>537859842</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>566101435</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>565034064</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>571044926</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>558495737</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>606694501</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>629405228</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>703565094</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>770294395</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>840041991</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>838687360</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>858863010</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>959879680</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1000063353</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>977879333</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1227097584</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1213051861</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-CD7F-4B36-BF3D-5A03C47D2B98}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2602,6 +2423,21 @@
           <c:symbol val="none"/>
         </c:marker>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -2618,7 +2454,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Sum of TPD</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2720,76 +2556,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>41621991</c:v>
+                  <c:v>260732730</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>48534692</c:v>
+                  <c:v>269735220</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>58677179</c:v>
+                  <c:v>269907393</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>52968870</c:v>
+                  <c:v>252758026</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43616916</c:v>
+                  <c:v>249402987</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>36212171</c:v>
+                  <c:v>265614563</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34878159</c:v>
+                  <c:v>300348392</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41898700</c:v>
+                  <c:v>319332316</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>48179368</c:v>
+                  <c:v>330626224</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>49265342</c:v>
+                  <c:v>330232878</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>51394497</c:v>
+                  <c:v>342060667</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>49271154</c:v>
+                  <c:v>346349062</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>58747606</c:v>
+                  <c:v>357269458</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>66339653</c:v>
+                  <c:v>362755159</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>63078890</c:v>
+                  <c:v>389570211</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>60999898</c:v>
+                  <c:v>416900158</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>57202202</c:v>
+                  <c:v>429113220</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>64471379</c:v>
+                  <c:v>442370932</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>78973321</c:v>
+                  <c:v>470162464</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>114678376</c:v>
+                  <c:v>521169308</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>202283447</c:v>
+                  <c:v>533349450</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>251462891</c:v>
+                  <c:v>532908042</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>229682914</c:v>
+                  <c:v>516481426</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>218578920</c:v>
+                  <c:v>241143564</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2797,197 +2633,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0383-4364-B280-81DE2D9A84EC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Sum of LNCON</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$4:$A$28</c:f>
-              <c:strCache>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>1988</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1989</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1990</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1991</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1992</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1993</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1994</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1995</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1996</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1997</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1998</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2003</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2011</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$4:$C$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>377968821</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>401194814</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>403500261</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>391855143</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>385823501</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>419971179</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>488704376</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>537859842</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>566101435</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>565034064</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>571044926</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>558495737</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>606694501</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>629405228</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>703565094</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>770294395</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>840041991</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>838687360</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>858863010</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>959879680</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1000063353</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>977879333</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1227097584</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1213051861</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-0383-4364-B280-81DE2D9A84EC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3345,6 +2990,21 @@
           <c:symbol val="none"/>
         </c:marker>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -3361,7 +3021,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Sum of TPD</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3463,76 +3123,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>41621991</c:v>
+                  <c:v>260732730</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>48534692</c:v>
+                  <c:v>269735220</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>58677179</c:v>
+                  <c:v>269907393</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>52968870</c:v>
+                  <c:v>252758026</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43616916</c:v>
+                  <c:v>249402987</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>36212171</c:v>
+                  <c:v>265614563</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34878159</c:v>
+                  <c:v>300348392</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41898700</c:v>
+                  <c:v>319332316</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>48179368</c:v>
+                  <c:v>330626224</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>49265342</c:v>
+                  <c:v>330232878</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>51394497</c:v>
+                  <c:v>342060667</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>49271154</c:v>
+                  <c:v>346349062</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>58747606</c:v>
+                  <c:v>357269458</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>66339653</c:v>
+                  <c:v>362755159</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>63078890</c:v>
+                  <c:v>389570211</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>60999898</c:v>
+                  <c:v>416900158</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>57202202</c:v>
+                  <c:v>429113220</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>64471379</c:v>
+                  <c:v>442370932</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>78973321</c:v>
+                  <c:v>470162464</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>114678376</c:v>
+                  <c:v>521169308</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>202283447</c:v>
+                  <c:v>533349450</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>251462891</c:v>
+                  <c:v>532908042</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>229682914</c:v>
+                  <c:v>516481426</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>218578920</c:v>
+                  <c:v>241143564</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3540,197 +3200,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-BF85-49E4-A871-E1E7CE82F509}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Sum of LNCON</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$4:$A$28</c:f>
-              <c:strCache>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>1988</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1989</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1990</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1991</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1992</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1993</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1994</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1995</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1996</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1997</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1998</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2003</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2011</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$4:$C$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>377968821</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>401194814</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>403500261</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>391855143</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>385823501</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>419971179</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>488704376</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>537859842</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>566101435</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>565034064</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>571044926</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>558495737</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>606694501</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>629405228</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>703565094</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>770294395</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>840041991</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>838687360</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>858863010</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>959879680</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1000063353</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>977879333</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1227097584</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1213051861</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-BF85-49E4-A871-E1E7CE82F509}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4032,7 +3501,7 @@
         <c:idx val="4"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -4046,6 +3515,21 @@
             </a:glow>
           </a:effectLst>
         </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -4063,7 +3547,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Sum of TPD</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4165,76 +3649,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>41621991</c:v>
+                  <c:v>260732730</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>48534692</c:v>
+                  <c:v>269735220</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>58677179</c:v>
+                  <c:v>269907393</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>52968870</c:v>
+                  <c:v>252758026</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43616916</c:v>
+                  <c:v>249402987</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>36212171</c:v>
+                  <c:v>265614563</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34878159</c:v>
+                  <c:v>300348392</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41898700</c:v>
+                  <c:v>319332316</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>48179368</c:v>
+                  <c:v>330626224</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>49265342</c:v>
+                  <c:v>330232878</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>51394497</c:v>
+                  <c:v>342060667</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>49271154</c:v>
+                  <c:v>346349062</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>58747606</c:v>
+                  <c:v>357269458</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>66339653</c:v>
+                  <c:v>362755159</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>63078890</c:v>
+                  <c:v>389570211</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>60999898</c:v>
+                  <c:v>416900158</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>57202202</c:v>
+                  <c:v>429113220</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>64471379</c:v>
+                  <c:v>442370932</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>78973321</c:v>
+                  <c:v>470162464</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>114678376</c:v>
+                  <c:v>521169308</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>202283447</c:v>
+                  <c:v>533349450</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>251462891</c:v>
+                  <c:v>532908042</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>229682914</c:v>
+                  <c:v>516481426</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>218578920</c:v>
+                  <c:v>241143564</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4242,223 +3726,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-DC9F-4857-8D26-3908DC57C370}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Sum of LNCON</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:glow rad="139700">
-                  <a:schemeClr val="accent4">
-                    <a:satMod val="175000"/>
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-DC9F-4857-8D26-3908DC57C370}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$4:$A$28</c:f>
-              <c:strCache>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>1988</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1989</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1990</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1991</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1992</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1993</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1994</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1995</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1996</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1997</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1998</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2003</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2011</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$4:$C$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>377968821</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>401194814</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>403500261</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>391855143</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>385823501</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>419971179</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>488704376</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>537859842</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>566101435</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>565034064</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>571044926</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>558495737</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>606694501</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>629405228</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>703565094</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>770294395</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>840041991</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>838687360</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>858863010</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>959879680</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1000063353</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>977879333</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1227097584</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1213051861</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-DC9F-4857-8D26-3908DC57C370}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6878,7 +6145,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="75" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6944,7 +6211,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8656674" cy="6282070"/>
+    <xdr:ext cx="8666480" cy="6289040"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -19589,16 +18856,16 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="18">
-  <location ref="A3:C28" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="18">
+  <location ref="A3:B28" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="25">
         <item x="23"/>
@@ -19709,23 +18976,14 @@
       <x/>
     </i>
   </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
+  <colItems count="1">
+    <i/>
   </colItems>
-  <dataFields count="2">
-    <dataField name="Sum of TPD" fld="6" baseField="0" baseItem="0"/>
-    <dataField name="Sum of LNCON" fld="1" baseField="0" baseItem="0"/>
+  <dataFields count="1">
+    <dataField name="Sum of LNCONOTH" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="11">
-    <chartFormat chart="9" format="6" series="1">
+  <chartFormats count="4">
+    <chartFormat chart="17" format="5" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -19734,7 +18992,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="7" format="6" series="1">
+    <chartFormat chart="9" format="8" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -19743,7 +19001,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="5" format="69" series="1">
+    <chartFormat chart="7" format="8" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -19752,77 +19010,11 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="4" format="69" series="1">
+    <chartFormat chart="5" format="71" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="70" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="70" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="17" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="17" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="17" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="7" count="1" selected="0">
-            <x v="2"/>
           </reference>
         </references>
       </pivotArea>
@@ -20137,18 +19329,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A3:C28"/>
+  <dimension ref="A3:B28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
@@ -20191,290 +19382,212 @@
     <col min="54" max="54" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>1988</v>
       </c>
       <c r="B4" s="1">
-        <v>41621991</v>
-      </c>
-      <c r="C4" s="1">
-        <v>377968821</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>260732730</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>1989</v>
       </c>
       <c r="B5" s="1">
-        <v>48534692</v>
-      </c>
-      <c r="C5" s="1">
-        <v>401194814</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>269735220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>1990</v>
       </c>
       <c r="B6" s="1">
-        <v>58677179</v>
-      </c>
-      <c r="C6" s="1">
-        <v>403500261</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>269907393</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>1991</v>
       </c>
       <c r="B7" s="1">
-        <v>52968870</v>
-      </c>
-      <c r="C7" s="1">
-        <v>391855143</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>252758026</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>1992</v>
       </c>
       <c r="B8" s="1">
-        <v>43616916</v>
-      </c>
-      <c r="C8" s="1">
-        <v>385823501</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>249402987</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>1993</v>
       </c>
       <c r="B9" s="1">
-        <v>36212171</v>
-      </c>
-      <c r="C9" s="1">
-        <v>419971179</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>265614563</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>1994</v>
       </c>
       <c r="B10" s="1">
-        <v>34878159</v>
-      </c>
-      <c r="C10" s="1">
-        <v>488704376</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>300348392</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>1995</v>
       </c>
       <c r="B11" s="1">
-        <v>41898700</v>
-      </c>
-      <c r="C11" s="1">
-        <v>537859842</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>319332316</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>1996</v>
       </c>
       <c r="B12" s="1">
-        <v>48179368</v>
-      </c>
-      <c r="C12" s="1">
-        <v>566101435</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>330626224</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>1997</v>
       </c>
       <c r="B13" s="1">
-        <v>49265342</v>
-      </c>
-      <c r="C13" s="1">
-        <v>565034064</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>330232878</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>1998</v>
       </c>
       <c r="B14" s="1">
-        <v>51394497</v>
-      </c>
-      <c r="C14" s="1">
-        <v>571044926</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+        <v>342060667</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>1999</v>
       </c>
       <c r="B15" s="1">
-        <v>49271154</v>
-      </c>
-      <c r="C15" s="1">
-        <v>558495737</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>346349062</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>2000</v>
       </c>
       <c r="B16" s="1">
-        <v>58747606</v>
-      </c>
-      <c r="C16" s="1">
-        <v>606694501</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>357269458</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>2001</v>
       </c>
       <c r="B17" s="1">
-        <v>66339653</v>
-      </c>
-      <c r="C17" s="1">
-        <v>629405228</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>362755159</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>2002</v>
       </c>
       <c r="B18" s="1">
-        <v>63078890</v>
-      </c>
-      <c r="C18" s="1">
-        <v>703565094</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <v>389570211</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>2003</v>
       </c>
       <c r="B19" s="1">
-        <v>60999898</v>
-      </c>
-      <c r="C19" s="1">
-        <v>770294395</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>416900158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>2004</v>
       </c>
       <c r="B20" s="1">
-        <v>57202202</v>
-      </c>
-      <c r="C20" s="1">
-        <v>840041991</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>429113220</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>2005</v>
       </c>
       <c r="B21" s="1">
-        <v>64471379</v>
-      </c>
-      <c r="C21" s="1">
-        <v>838687360</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+        <v>442370932</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>2006</v>
       </c>
       <c r="B22" s="1">
-        <v>78973321</v>
-      </c>
-      <c r="C22" s="1">
-        <v>858863010</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+        <v>470162464</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>2007</v>
       </c>
       <c r="B23" s="1">
-        <v>114678376</v>
-      </c>
-      <c r="C23" s="1">
-        <v>959879680</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+        <v>521169308</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>2008</v>
       </c>
       <c r="B24" s="1">
-        <v>202283447</v>
-      </c>
-      <c r="C24" s="1">
-        <v>1000063353</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+        <v>533349450</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>2009</v>
       </c>
       <c r="B25" s="1">
-        <v>251462891</v>
-      </c>
-      <c r="C25" s="1">
-        <v>977879333</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+        <v>532908042</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>2010</v>
       </c>
       <c r="B26" s="1">
-        <v>229682914</v>
-      </c>
-      <c r="C26" s="1">
-        <v>1227097584</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+        <v>516481426</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>2011</v>
       </c>
       <c r="B27" s="1">
-        <v>218578920</v>
-      </c>
-      <c r="C27" s="1">
-        <v>1213051861</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+        <v>241143564</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B28" s="1">
-        <v>2023018536</v>
-      </c>
-      <c r="C28" s="1">
-        <v>16293077489</v>
+        <v>8750293850</v>
       </c>
     </row>
   </sheetData>
